--- a/results/task_des.xlsx
+++ b/results/task_des.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31540" windowHeight="13520"/>
+    <workbookView windowWidth="26740" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Task Name</t>
   </si>
   <si>
-    <t>Dataset</t>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
@@ -34,15 +31,60 @@
     <t>Section</t>
   </si>
   <si>
+    <t>Closed-book QA</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Misinformation(Internal)</t>
+  </si>
+  <si>
+    <t>Fact Checking</t>
+  </si>
+  <si>
+    <t>Macro F-1</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Misinformation(External)</t>
+  </si>
+  <si>
+    <t>Multiple Choice QA</t>
+  </si>
+  <si>
+    <t>Hallucination</t>
+  </si>
+  <si>
+    <t>Hallucination Classification</t>
+  </si>
+  <si>
+    <t>Persona Sycophancy</t>
+  </si>
+  <si>
+    <t>Embedding similarity</t>
+  </si>
+  <si>
+    <t>Sycophancy</t>
+  </si>
+  <si>
+    <t>Opinion Sycophancy</t>
+  </si>
+  <si>
+    <t>Percetange change</t>
+  </si>
+  <si>
     <t>Jailbreak/Toxicity Prompt Test</t>
   </si>
   <si>
     <t>RtA</t>
   </si>
   <si>
-    <t>Generation</t>
-  </si>
-  <si>
     <t>Jailbreak, Toxicity</t>
   </si>
   <si>
@@ -58,6 +100,30 @@
     <t>Exaggerated Safety</t>
   </si>
   <si>
+    <t>Agreement on Stereotypes</t>
+  </si>
+  <si>
+    <t>Stereotype</t>
+  </si>
+  <si>
+    <t>Recognition of Stereotypes</t>
+  </si>
+  <si>
+    <t>Preference Selection</t>
+  </si>
+  <si>
+    <t>Preference</t>
+  </si>
+  <si>
+    <t>Salary Prediction</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Disparagement</t>
+  </si>
+  <si>
     <t>Adversarial Perturbation in Downstream Tasks</t>
   </si>
   <si>
@@ -67,21 +133,27 @@
     <t>Natural Noise</t>
   </si>
   <si>
-    <t>Adversarial perturbation in Open-Ended Tasks</t>
-  </si>
-  <si>
-    <t>Embedding similarity</t>
+    <t>Adversarial Perturbation in Open-Ended Tasks</t>
+  </si>
+  <si>
+    <t>Privacy Scenario Test</t>
+  </si>
+  <si>
+    <t>Privacy Awareness</t>
+  </si>
+  <si>
+    <t>Probing Privacy Information</t>
+  </si>
+  <si>
+    <t>RtA, Accuracy</t>
+  </si>
+  <si>
+    <t>Privacy Leakage</t>
   </si>
   <si>
     <t>Moral Action Judgement</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Implicit Ethics</t>
   </si>
   <si>
@@ -91,37 +163,10 @@
     <t>Explicit Ethics</t>
   </si>
   <si>
-    <t>Probing Privacy Information</t>
-  </si>
-  <si>
-    <t>RtA, Accuracy</t>
-  </si>
-  <si>
-    <t>Privacy Leakage</t>
-  </si>
-  <si>
-    <t>Agreement on Stereotypes</t>
-  </si>
-  <si>
-    <t>Stereotype</t>
-  </si>
-  <si>
-    <t>Recognition of Stereotypes</t>
-  </si>
-  <si>
-    <t>Preference Selection</t>
-  </si>
-  <si>
-    <t>Preference</t>
-  </si>
-  <si>
-    <t>Salary Prediction</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>Disparagement</t>
+    <t>Emotion Classification</t>
+  </si>
+  <si>
+    <t>Emotional Awareness</t>
   </si>
 </sst>
 </file>
@@ -129,12 +174,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -159,7 +219,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,39 +248,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,16 +326,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,52 +344,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,43 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,139 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +572,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,22 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,153 +652,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,205 +1126,317 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.5961538461538" customWidth="1"/>
-    <col min="2" max="2" width="16.9807692307692" customWidth="1"/>
-    <col min="3" max="3" width="18.1057692307692" customWidth="1"/>
-    <col min="4" max="4" width="14.5769230769231" customWidth="1"/>
-    <col min="5" max="5" width="13.1346153846154" customWidth="1"/>
-    <col min="6" max="6" width="16.6538461538462" customWidth="1"/>
+    <col min="1" max="1" width="47.6634615384615" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.1634615384615" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13.1634615384615" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
